--- a/SensitivityAnalysisSpreadSheets/Holdback Bar Time/HoldbackBarTime10 Aircraft 9_1_-20%.xlsx
+++ b/SensitivityAnalysisSpreadSheets/Holdback Bar Time/HoldbackBarTime10 Aircraft 9_1_-20%.xlsx
@@ -70037,6 +70037,9 @@
           <t>Run 1</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>13.15383333333333</v>
+      </c>
       <c r="C2" t="n">
         <v>452.0816666666667</v>
       </c>
@@ -70092,6 +70095,9 @@
           <t>Run 2</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>12.688</v>
+      </c>
       <c r="C3" t="n">
         <v>430.71</v>
       </c>
@@ -70147,6 +70153,9 @@
           <t>Run 3</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>12.86366666666667</v>
+      </c>
       <c r="C4" t="n">
         <v>435.4905555555556</v>
       </c>
@@ -70202,6 +70211,9 @@
           <t>Run 4</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>13.16366666666667</v>
+      </c>
       <c r="C5" t="n">
         <v>436.9544444444444</v>
       </c>
@@ -70257,6 +70269,9 @@
           <t>Run 5</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>13.623</v>
+      </c>
       <c r="C6" t="n">
         <v>443.4455555555555</v>
       </c>
@@ -70312,6 +70327,9 @@
           <t>Run 6</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>14.41683333333333</v>
+      </c>
       <c r="C7" t="n">
         <v>454.595</v>
       </c>
@@ -70367,6 +70385,9 @@
           <t>Run 7</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>14.03966666666667</v>
+      </c>
       <c r="C8" t="n">
         <v>430.375</v>
       </c>
@@ -70422,6 +70443,9 @@
           <t>Run 8</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>12.25283333333333</v>
+      </c>
       <c r="C9" t="n">
         <v>411.4277777777778</v>
       </c>
@@ -70477,6 +70501,9 @@
           <t>Run 9</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>13.95333333333333</v>
+      </c>
       <c r="C10" t="n">
         <v>460.3644444444445</v>
       </c>
@@ -70532,6 +70559,9 @@
           <t>Run 10</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>12.23266666666667</v>
+      </c>
       <c r="C11" t="n">
         <v>420.3144444444446</v>
       </c>
@@ -70587,6 +70617,9 @@
           <t>Run 11</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>13.02216666666667</v>
+      </c>
       <c r="C12" t="n">
         <v>434.65</v>
       </c>
@@ -70642,6 +70675,9 @@
           <t>Run 12</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>12.5895</v>
+      </c>
       <c r="C13" t="n">
         <v>405.0344444444445</v>
       </c>
@@ -70697,6 +70733,9 @@
           <t>Run 13</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>11.80233333333333</v>
+      </c>
       <c r="C14" t="n">
         <v>396.4538888888889</v>
       </c>
@@ -70752,6 +70791,9 @@
           <t>Run 14</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>13.11566666666667</v>
+      </c>
       <c r="C15" t="n">
         <v>426.5561111111111</v>
       </c>
@@ -70807,6 +70849,9 @@
           <t>Run 15</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>12.67033333333333</v>
+      </c>
       <c r="C16" t="n">
         <v>420.5872222222223</v>
       </c>
@@ -70862,6 +70907,9 @@
           <t>Run 16</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>12.59733333333333</v>
+      </c>
       <c r="C17" t="n">
         <v>435.6016666666667</v>
       </c>
@@ -70917,6 +70965,9 @@
           <t>Run 17</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>13.46133333333333</v>
+      </c>
       <c r="C18" t="n">
         <v>442.2455555555555</v>
       </c>
@@ -70972,6 +71023,9 @@
           <t>Run 18</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>13.2955</v>
+      </c>
       <c r="C19" t="n">
         <v>430.2938888888889</v>
       </c>
@@ -71027,6 +71081,9 @@
           <t>Run 19</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>12.83033333333333</v>
+      </c>
       <c r="C20" t="n">
         <v>427.5855555555555</v>
       </c>
@@ -71082,6 +71139,9 @@
           <t>Run 20</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>14.69116666666667</v>
+      </c>
       <c r="C21" t="n">
         <v>438.46</v>
       </c>
@@ -71137,6 +71197,9 @@
           <t>Run 21</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>12.1135</v>
+      </c>
       <c r="C22" t="n">
         <v>428.0933333333333</v>
       </c>
@@ -71192,6 +71255,9 @@
           <t>Run 22</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>12.31466666666667</v>
+      </c>
       <c r="C23" t="n">
         <v>423.6888888888889</v>
       </c>
@@ -71247,6 +71313,9 @@
           <t>Run 23</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>13.76683333333333</v>
+      </c>
       <c r="C24" t="n">
         <v>429.8016666666666</v>
       </c>
@@ -71302,6 +71371,9 @@
           <t>Run 24</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>12.88683333333333</v>
+      </c>
       <c r="C25" t="n">
         <v>434.27</v>
       </c>
@@ -71357,6 +71429,9 @@
           <t>Run 25</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>12.00783333333333</v>
+      </c>
       <c r="C26" t="n">
         <v>416.7966666666666</v>
       </c>
@@ -71412,6 +71487,9 @@
           <t>Run 26</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>13.4905</v>
+      </c>
       <c r="C27" t="n">
         <v>450.1305555555556</v>
       </c>
@@ -71467,6 +71545,9 @@
           <t>Run 27</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>13.28633333333334</v>
+      </c>
       <c r="C28" t="n">
         <v>437.9005555555556</v>
       </c>
@@ -71522,6 +71603,9 @@
           <t>Run 28</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>12.33166666666667</v>
+      </c>
       <c r="C29" t="n">
         <v>432.79</v>
       </c>
@@ -71577,6 +71661,9 @@
           <t>Run 29</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>12.55066666666667</v>
+      </c>
       <c r="C30" t="n">
         <v>439.5766666666667</v>
       </c>
@@ -71631,6 +71718,9 @@
         <is>
           <t>Run 30</t>
         </is>
+      </c>
+      <c r="B31" t="n">
+        <v>13.7235</v>
       </c>
       <c r="C31" t="n">
         <v>438.6205555555555</v>
